--- a/sample.xlsx
+++ b/sample.xlsx
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
+        <v>63</v>
+      </c>
+      <c r="C10" t="n">
         <v>28</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mysheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NewSheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YourSheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Copied Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +417,44 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00ff3399"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,128 +465,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>수학</t>
+          <t>Test</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>68</v>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>74</v>
-      </c>
-      <c r="C4" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>37</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>44</v>
-      </c>
-      <c r="C6" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>43</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>63</v>
-      </c>
-      <c r="C10" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>61</v>
-      </c>
-      <c r="C11" t="n">
-        <v>89</v>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
       </c>
     </row>
   </sheetData>
